--- a/summary/sppb-psat-ongoing.xlsx
+++ b/summary/sppb-psat-ongoing.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>pengajuan</t>
   </si>
@@ -61,6 +61,9 @@
     <t/>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Thu Dec 02 2021 01:35:23 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
@@ -118,6 +121,12 @@
     <t>PERPANJANGAN</t>
   </si>
   <si>
+    <t>44/SKLPSH/OKKPP/2021</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 2022 00:00:00 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>Sat Dec 11 2021 02:38:37 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
@@ -169,6 +178,12 @@
     <t>perpanjangan/32/sppb</t>
   </si>
   <si>
+    <t>dfdfdf</t>
+  </si>
+  <si>
+    <t>Tue Dec 14 2021 00:00:00 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
@@ -232,6 +247,12 @@
     <t>Rekomendasi</t>
   </si>
   <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 2026 07:15:11 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>Fri Dec 24 2021 16:47:42 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
@@ -244,6 +265,12 @@
     <t>PENAMBAHAN</t>
   </si>
   <si>
+    <t>AB111121</t>
+  </si>
+  <si>
+    <t>Sat Jan 08 2022 00:00:00 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>Fri Dec 24 2021 16:49:30 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
@@ -253,6 +280,12 @@
     <t>permohonan/52/sppb</t>
   </si>
   <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 2027 10:30:01 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>Mon Dec 27 2021 03:54:37 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
@@ -262,6 +295,12 @@
     <t>permohonan/53/sppb</t>
   </si>
   <si>
+    <t>134565</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 2026 04:17:03 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>57</t>
   </si>
   <si>
@@ -289,6 +328,12 @@
     <t>perpanjangan/56/sppb</t>
   </si>
   <si>
+    <t>NOMOR12</t>
+  </si>
+  <si>
+    <t>Wed Jan 05 2022 00:00:00 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>59</t>
   </si>
   <si>
@@ -401,9 +446,6 @@
   </si>
   <si>
     <t>permohonan/44/sppb</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
   <si>
     <t>Wed Dec 22 2021 06:11:57 GMT+0800 (Taipei Standard Time)</t>
@@ -467,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -502,7 +544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
@@ -530,161 +572,197 @@
       <c r="I2" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="K5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>12</v>
@@ -699,24 +777,30 @@
         <v>15</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>13</v>
@@ -728,111 +812,135 @@
         <v>15</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>13</v>
@@ -844,18 +952,24 @@
         <v>15</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>11</v>
@@ -867,24 +981,30 @@
         <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>11</v>
@@ -896,85 +1016,103 @@
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>12</v>
@@ -983,27 +1121,33 @@
         <v>13</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="0" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>12</v>
@@ -1012,82 +1156,100 @@
         <v>13</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>85</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>11</v>
@@ -1099,27 +1261,33 @@
         <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>12</v>
@@ -1128,82 +1296,100 @@
         <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="J24" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="0" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="0" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>11</v>
@@ -1215,24 +1401,30 @@
         <v>13</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="0" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>11</v>
@@ -1244,24 +1436,30 @@
         <v>13</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="0" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>11</v>
@@ -1273,24 +1471,30 @@
         <v>13</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="0" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>11</v>
@@ -1302,24 +1506,30 @@
         <v>13</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="0" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>11</v>
@@ -1331,24 +1541,30 @@
         <v>13</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="0" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>11</v>
@@ -1360,56 +1576,68 @@
         <v>13</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="0" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>12</v>
@@ -1424,18 +1652,24 @@
         <v>15</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="0" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>11</v>
@@ -1447,24 +1681,30 @@
         <v>13</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="0" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>11</v>
@@ -1476,74 +1716,92 @@
         <v>13</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="0" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>138</v>
+        <v>16</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
